--- a/UnitTests/Tests/Index.xlsx
+++ b/UnitTests/Tests/Index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Function</t>
   </si>
@@ -162,76 +162,43 @@
     <t>Modified Following</t>
   </si>
   <si>
-    <t>index01#0007</t>
-  </si>
-  <si>
-    <t>index02#0006</t>
-  </si>
-  <si>
-    <t>index03#0005</t>
-  </si>
-  <si>
-    <t>index04#0005</t>
-  </si>
-  <si>
-    <t>index05#0007</t>
-  </si>
-  <si>
-    <t>index06#0005</t>
-  </si>
-  <si>
-    <t>index07#0007</t>
-  </si>
-  <si>
-    <t>index08#0006</t>
-  </si>
-  <si>
-    <t>index09#0002</t>
-  </si>
-  <si>
-    <t>index10#0006</t>
-  </si>
-  <si>
-    <t>index11#0004</t>
-  </si>
-  <si>
-    <t>index12#0006</t>
-  </si>
-  <si>
-    <t>index13#0002</t>
-  </si>
-  <si>
-    <t>index01#0002</t>
-  </si>
-  <si>
-    <t>index02#0002</t>
-  </si>
-  <si>
-    <t>index03#0002</t>
-  </si>
-  <si>
-    <t>index04#0002</t>
-  </si>
-  <si>
-    <t>index05#0002</t>
-  </si>
-  <si>
-    <t>index06#0002</t>
-  </si>
-  <si>
-    <t>index07#0002</t>
-  </si>
-  <si>
-    <t>index08#0002</t>
-  </si>
-  <si>
-    <t>index10#0002</t>
-  </si>
-  <si>
-    <t>index11#0002</t>
-  </si>
-  <si>
-    <t>index12#0002</t>
+    <t>index01#0000</t>
+  </si>
+  <si>
+    <t>index02#0000</t>
+  </si>
+  <si>
+    <t>index03#0000</t>
+  </si>
+  <si>
+    <t>index04#0000</t>
+  </si>
+  <si>
+    <t>index05#0000</t>
+  </si>
+  <si>
+    <t>index06#0000</t>
+  </si>
+  <si>
+    <t>index07#0000</t>
+  </si>
+  <si>
+    <t>index08#0000</t>
+  </si>
+  <si>
+    <t>index09#0000</t>
+  </si>
+  <si>
+    <t>index10#0000</t>
+  </si>
+  <si>
+    <t>index11#0000</t>
+  </si>
+  <si>
+    <t>index12#0000</t>
+  </si>
+  <si>
+    <t>index13#0000</t>
   </si>
 </sst>
 </file>
@@ -756,7 +723,7 @@
       </c>
       <c r="G7" t="str">
         <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00003#0002</v>
+        <v>obj_00000#0000</v>
       </c>
       <c r="J7" s="4">
         <v>42705</v>
@@ -785,7 +752,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlTimeSeries()</f>
-        <v>obj_00008#0002</v>
+        <v>obj_00001#0000</v>
       </c>
       <c r="J8" s="4">
         <v>42706</v>
@@ -814,7 +781,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_0000b#0002</v>
+        <v>obj_0000b#0000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1015,15 +982,15 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E20" t="str">
         <f>_xll.qlIborIndex("index01","Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>index01#0002</v>
+        <v>index01#0000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,15 +1001,15 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E21" t="str">
         <f>_xll.qlOvernightIndex("index02","euribor",2,"EUR","TARGET","Actual/360")</f>
-        <v>index02#0002</v>
+        <v>index02#0000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,15 +1020,15 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E22" t="str">
         <f>_xll.qlEuribor("index03","1Y")</f>
-        <v>index03#0002</v>
+        <v>index03#0000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,15 +1039,15 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E23" t="str">
         <f>_xll.qlEuribor365("index04","1Y")</f>
-        <v>index04#0002</v>
+        <v>index04#0000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,15 +1058,15 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E24" t="str">
         <f>_xll.qlEonia("index05")</f>
-        <v>index05#0002</v>
+        <v>index05#0000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,15 +1077,15 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E25" t="str">
         <f>_xll.qlLibor("index06","EUR","1Y")</f>
-        <v>index06#0002</v>
+        <v>index06#0000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,15 +1096,15 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E26" t="str">
         <f>_xll.qlSonia("index07")</f>
-        <v>index07#0002</v>
+        <v>index07#0000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,15 +1153,15 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E29" t="str">
         <f>_xll.qlSwapIndex("index08","Euribor","1Y",2,"EUR","TARGET","1Y","Modified Following","Actual/360",E20)</f>
-        <v>index08#0002</v>
+        <v>index08#0000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,7 +1180,7 @@
       </c>
       <c r="E30" t="str">
         <f>_xll.qlEuriborSwap("index09","IsdaFixA","1Y")</f>
-        <v>index09#0002</v>
+        <v>index09#0000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,15 +1191,15 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E31" t="str">
         <f>_xll.qlLiborSwap("index10","eur","isdafixa","1y")</f>
-        <v>index10#0002</v>
+        <v>index10#0000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,15 +1210,15 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E32" t="str">
         <f>_xll.qlEuriborSwapIsdaFixA("index11","1y")</f>
-        <v>index11#0002</v>
+        <v>index11#0000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,15 +1229,15 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E33" t="str">
         <f>_xll.qlBMAIndex("index12")</f>
-        <v>index12#0002</v>
+        <v>index12#0000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,7 +1256,7 @@
       </c>
       <c r="E34" t="str">
         <f>_xll.qlProxyIbor("index13","euribor","1y",2,"eur","target","modified following",TRUE,"Actual/360",1,E20,1)</f>
-        <v>index13#0002</v>
+        <v>index13#0000</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Index.xlsx
+++ b/UnitTests/Tests/Index.xlsx
@@ -624,7 +624,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="str">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D34" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D34" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="str">
@@ -687,9 +687,9 @@
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E6" t="e">
         <f>_xll.qlIndexFixing(G7,J7)</f>
@@ -723,7 +723,7 @@
       </c>
       <c r="G7" t="str">
         <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00000#0000</v>
+        <v>obj_00034#0000</v>
       </c>
       <c r="J7" s="4">
         <v>42705</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlTimeSeries()</f>
-        <v>obj_00001#0000</v>
+        <v>obj_0003b#0000</v>
       </c>
       <c r="J8" s="4">
         <v>42706</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_0000b#0000</v>
+        <v>obj_0003d#0000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Index.xlsx
+++ b/UnitTests/Tests/Index.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -204,10 +209,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -252,7 +257,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -264,10 +269,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,12 +281,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -323,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +364,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,13 +608,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -627,9 +669,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlIndexName(E20)</f>
-        <v>Euribor1Y Actual/360</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlIndexName(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -646,9 +688,9 @@
         <f t="shared" ref="D4:D34" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlIndexFixingCalendar(E20)</f>
-        <v>TARGET</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlIndexFixingCalendar(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,9 +707,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5" t="b">
-        <f>_xll.qlIndexIsValidFixingDate(E20,G5)</f>
-        <v>0</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlIndexIsValidFixingDate(E20,G5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="4">
         <v>25569</v>
@@ -692,8 +734,8 @@
         <v>ERROR</v>
       </c>
       <c r="E6" t="e">
-        <f>_xll.qlIndexFixing(G7,J7)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlIndexFixing(G7,J7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G6" s="4">
         <v>42735</v>
@@ -717,13 +759,13 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7" t="b">
-        <f>_xll.qlIndexAddFixings(G7,J7:J8,K7:K8)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_00034#0000</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlIndexAddFixings(G7,J7:J8,K7:K8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="J7" s="4">
         <v>42705</v>
@@ -746,13 +788,13 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8" t="b">
-        <f>_xll.qlIndexAddFixings2(G7,G8)</f>
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xll.qlTimeSeries()</f>
-        <v>obj_0003b#0000</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlIndexAddFixings2(G7,G8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" t="e">
+        <f ca="1">_xll.qlTimeSeries()</f>
+        <v>#NAME?</v>
       </c>
       <c r="J8" s="4">
         <v>42706</v>
@@ -775,13 +817,13 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" t="b">
-        <f>_xll.qlIndexClearFixings(G9)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>obj_0003d#0000</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlIndexClearFixings(G9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" t="e">
+        <f ca="1">_xll.qlIborIndex(,"Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -798,9 +840,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10" t="str">
-        <f>_xll.qlInterestRateIndexFamilyName(E20)</f>
-        <v>Euribor</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFamilyName(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,9 +859,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11" t="str">
-        <f>_xll.qlInterestRateIndexTenor(E20)</f>
-        <v>1Y</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlInterestRateIndexTenor(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,9 +878,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlInterestRateIndexFixingDays(E20)</f>
-        <v>2</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDays(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,9 +897,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13" t="str">
-        <f>_xll.qlInterestRateIndexCurrency(E20)</f>
-        <v>EUR</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlInterestRateIndexCurrency(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,9 +916,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E14" t="str">
-        <f>_xll.qlInterestRateIndexDayCounter(E20)</f>
-        <v>Actual/360</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlInterestRateIndexDayCounter(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,9 +935,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlInterestRateIndexValueDate(E20,J7)</f>
-        <v>42709</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlInterestRateIndexValueDate(E20,J7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,9 +954,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlInterestRateIndexFixingDate(E20,J7)</f>
-        <v>42703</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(E20,J7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,9 +973,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlInterestRateIndexMaturity(E20,J7)</f>
-        <v>43070</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(E20,J7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,9 +992,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlIborIndexBusinessDayConv(E20)</f>
-        <v>Modified Following</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlIborIndexBusinessDayConv(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,9 +1011,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E19" t="b">
-        <f>_xll.qlIborIndexEndOfMonth(E20)</f>
-        <v>1</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlIborIndexEndOfMonth(E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,9 +1030,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlIborIndex("index01","Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
-        <v>index01#0000</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlIborIndex("index01","Euribor","1Y",2,"EUR","TARGET","Modified Following",TRUE,"Actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,9 +1049,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xll.qlOvernightIndex("index02","euribor",2,"EUR","TARGET","Actual/360")</f>
-        <v>index02#0000</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlOvernightIndex("index02","euribor",2,"EUR","TARGET","Actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,9 +1068,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E22" t="str">
-        <f>_xll.qlEuribor("index03","1Y")</f>
-        <v>index03#0000</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlEuribor("index03","1Y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,9 +1087,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E23" t="str">
-        <f>_xll.qlEuribor365("index04","1Y")</f>
-        <v>index04#0000</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlEuribor365("index04","1Y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,9 +1106,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E24" t="str">
-        <f>_xll.qlEonia("index05")</f>
-        <v>index05#0000</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlEonia("index05")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,9 +1125,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E25" t="str">
-        <f>_xll.qlLibor("index06","EUR","1Y")</f>
-        <v>index06#0000</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlLibor("index06","EUR","1Y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,9 +1144,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E26" t="str">
-        <f>_xll.qlSonia("index07")</f>
-        <v>index07#0000</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlSonia("index07")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,9 +1163,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E27" t="str">
-        <f>_xll.qlSwapIndexFixedLegTenor(E29)</f>
-        <v>1Y</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlSwapIndexFixedLegTenor(E29)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1140,9 +1182,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E28" t="str">
-        <f>_xll.qlSwapIndexFixedLegBDC(E29)</f>
-        <v>Modified Following</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlSwapIndexFixedLegBDC(E29)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,9 +1201,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E29" t="str">
-        <f>_xll.qlSwapIndex("index08","Euribor","1Y",2,"EUR","TARGET","1Y","Modified Following","Actual/360",E20)</f>
-        <v>index08#0000</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlSwapIndex("index08","Euribor","1Y",2,"EUR","TARGET","1Y","Modified Following","Actual/360",E20)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,9 +1220,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E30" t="str">
-        <f>_xll.qlEuriborSwap("index09","IsdaFixA","1Y")</f>
-        <v>index09#0000</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlEuriborSwap("index09","IsdaFixA","1Y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,9 +1239,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E31" t="str">
-        <f>_xll.qlLiborSwap("index10","eur","isdafixa","1y")</f>
-        <v>index10#0000</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlLiborSwap("index10","eur","isdafixa","1y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,9 +1258,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E32" t="str">
-        <f>_xll.qlEuriborSwapIsdaFixA("index11","1y")</f>
-        <v>index11#0000</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlEuriborSwapIsdaFixA("index11","1y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,9 +1277,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E33" t="str">
-        <f>_xll.qlBMAIndex("index12")</f>
-        <v>index12#0000</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlBMAIndex("index12")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,9 +1296,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E34" t="str">
-        <f>_xll.qlProxyIbor("index13","euribor","1y",2,"eur","target","modified following",TRUE,"Actual/360",1,E20,1)</f>
-        <v>index13#0000</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlProxyIbor("index13","euribor","1y",2,"eur","target","modified following",TRUE,"Actual/360",1,E20,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1266,26 +1308,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
